--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -504,7 +504,7 @@
         <x:v>899</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1644</x:v>
+        <x:v>1645</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1586</x:v>
@@ -530,13 +530,13 @@
         <x:v>3236</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5840</x:v>
+        <x:v>5842</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6323</x:v>
+        <x:v>6324</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3452</x:v>
+        <x:v>3453</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -498,7 +498,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>899</x:v>
@@ -507,10 +507,10 @@
         <x:v>1645</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1586</x:v>
+        <x:v>1587</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>5</x:v>
@@ -530,10 +530,10 @@
         <x:v>3236</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5842</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6324</x:v>
+        <x:v>6326</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>
@@ -738,7 +738,7 @@
         <x:v>2069</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3530</x:v>
+        <x:v>3531</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3207</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -533,7 +533,7 @@
         <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6326</x:v>
+        <x:v>6325</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -654,7 +654,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>298</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -501,7 +501,7 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1645</x:v>
@@ -533,7 +533,7 @@
         <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6325</x:v>
+        <x:v>6326</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>
@@ -981,7 +981,7 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -741,7 +741,7 @@
         <x:v>3531</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3207</x:v>
+        <x:v>3208</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1986</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -527,7 +527,7 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3236</x:v>
+        <x:v>3237</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5843</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -816,7 +816,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -527,7 +527,7 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3237</x:v>
+        <x:v>3238</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5843</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -504,10 +504,10 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1645</x:v>
+        <x:v>1646</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1587</x:v>
+        <x:v>1588</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>663</x:v>
@@ -530,13 +530,13 @@
         <x:v>3238</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5843</x:v>
+        <x:v>5845</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6325</x:v>
+        <x:v>6329</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3453</x:v>
+        <x:v>3454</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -504,10 +504,10 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1646</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1588</x:v>
+        <x:v>1589</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>663</x:v>
@@ -527,13 +527,13 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3238</x:v>
+        <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5845</x:v>
+        <x:v>5847</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6329</x:v>
+        <x:v>6332</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3454</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,10 +530,10 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5847</x:v>
+        <x:v>5844</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6332</x:v>
+        <x:v>6333</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3454</x:v>
@@ -683,7 +683,7 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>775</x:v>
@@ -735,7 +735,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2068</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>3531</x:v>
@@ -966,7 +966,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>496</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,7 +530,7 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5844</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6333</x:v>
@@ -735,7 +735,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2068</x:v>
+        <x:v>2069</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>3531</x:v>
@@ -891,7 +891,7 @@
         <x:v>469</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1401</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>160</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -741,7 +741,7 @@
         <x:v>3531</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3208</x:v>
+        <x:v>3209</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1986</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,10 +530,10 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5843</x:v>
+        <x:v>5842</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6333</x:v>
+        <x:v>6334</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3454</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,7 +530,7 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5842</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6334</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -536,7 +536,7 @@
         <x:v>6334</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3454</x:v>
+        <x:v>3453</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,10 +530,10 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5843</x:v>
+        <x:v>5844</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6334</x:v>
+        <x:v>6333</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>
@@ -920,7 +920,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -504,7 +504,7 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1646</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1589</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -530,7 +530,7 @@
         <x:v>3239</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5844</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6333</x:v>
@@ -735,7 +735,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2068</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>3531</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -738,7 +738,7 @@
         <x:v>2068</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3531</x:v>
+        <x:v>3530</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3209</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -533,7 +533,7 @@
         <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6333</x:v>
+        <x:v>6334</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -527,7 +527,7 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3239</x:v>
+        <x:v>3240</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>5843</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>1646</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1589</x:v>
+        <x:v>1590</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>663</x:v>
@@ -741,7 +741,7 @@
         <x:v>3530</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3209</x:v>
+        <x:v>3210</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1986</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -501,13 +501,13 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1646</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1590</x:v>
+        <x:v>1589</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>663</x:v>
@@ -530,10 +530,10 @@
         <x:v>3240</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5843</x:v>
+        <x:v>5842</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6334</x:v>
+        <x:v>6337</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3453</x:v>
@@ -654,19 +654,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -686,10 +686,10 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>831</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>471</x:v>
@@ -715,10 +715,10 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>1</x:v>
@@ -738,13 +738,13 @@
         <x:v>2068</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3530</x:v>
+        <x:v>3533</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3210</x:v>
+        <x:v>3209</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>1986</x:v>
+        <x:v>1989</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>2</x:v>
@@ -894,7 +894,7 @@
         <x:v>1402</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>192</x:v>
@@ -943,13 +943,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>161</x:v>
@@ -972,7 +972,7 @@
         <x:v>496</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>892</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -744,7 +744,7 @@
         <x:v>3209</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>1989</x:v>
+        <x:v>1990</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -744,7 +744,7 @@
         <x:v>3209</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>1990</x:v>
+        <x:v>1991</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -715,7 +715,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>769</x:v>
@@ -741,7 +741,7 @@
         <x:v>3533</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3209</x:v>
+        <x:v>3208</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1991</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>1589</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>5</x:v>
@@ -530,7 +530,7 @@
         <x:v>3240</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5842</x:v>
+        <x:v>5843</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>6337</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -46,34 +46,256 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
+    <x:t>774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bad Checks</x:t>
   </x:si>
   <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>471</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991</x:t>
+  </x:si>
+  <x:si>
     <x:t>Drunkenness</x:t>
   </x:si>
   <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Peeping Tom</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -82,7 +304,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -132,13 +354,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -147,7 +369,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -155,7 +377,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -450,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -497,23 +719,23 @@
       <x:c r="B2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>901</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1646</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1589</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>664</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>5</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -521,467 +743,467 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>774</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>3240</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>5843</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>6337</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>3453</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C6" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
+      <x:c r="F7" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="G7" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C8" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>448</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>509</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>773</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>830</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>471</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="n">
+      <x:c r="C10" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>740</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>1307</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>1197</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>769</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>1</x:v>
+      <x:c r="G10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>2068</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>3533</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>3208</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>1991</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="E13" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
+      <x:c r="C14" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="G14" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C15" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C16" s="1" t="n">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>646</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
+      <x:c r="C16" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="n">
+      <x:c r="F16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>1</x:v>
+      <x:c r="G16" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="n">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>1402</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C19" s="1" t="n">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>374</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="n">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>1</x:v>
+      <x:c r="C19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="n">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="n">
-        <x:v>496</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="n">
-        <x:v>1096</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="n">
-        <x:v>892</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="n">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -49,13 +49,13 @@
     <x:t>341</x:t>
   </x:si>
   <x:si>
-    <x:t>901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1589</x:t>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1588</x:t>
   </x:si>
   <x:si>
     <x:t>664</x:t>
@@ -70,16 +70,16 @@
     <x:t>774</x:t>
   </x:si>
   <x:si>
-    <x:t>3240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3453</x:t>
+    <x:t>3239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3454</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
@@ -221,6 +221,9 @@
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -1035,10 +1038,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
         <x:v>41</x:v>
@@ -1064,10 +1067,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>66</x:v>
@@ -1078,25 +1081,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>59</x:v>
@@ -1104,33 +1107,33 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>16</x:v>
@@ -1139,16 +1142,16 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>24</x:v>
@@ -1156,25 +1159,25 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
         <x:v>59</x:v>
@@ -1182,28 +1185,28 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -70,10 +70,10 @@
     <x:t>774</x:t>
   </x:si>
   <x:si>
-    <x:t>3239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5840</x:t>
+    <x:t>3240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5841</x:t>
   </x:si>
   <x:si>
     <x:t>6334</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -202,7 +202,7 @@
     <x:t>2068</x:t>
   </x:si>
   <x:si>
-    <x:t>3533</x:t>
+    <x:t>3534</x:t>
   </x:si>
   <x:si>
     <x:t>3208</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -205,7 +205,7 @@
     <x:t>3534</x:t>
   </x:si>
   <x:si>
-    <x:t>3208</x:t>
+    <x:t>3207</x:t>
   </x:si>
   <x:si>
     <x:t>1991</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -52,7 +52,7 @@
     <x:t>900</x:t>
   </x:si>
   <x:si>
-    <x:t>1645</x:t>
+    <x:t>1644</x:t>
   </x:si>
   <x:si>
     <x:t>1588</x:t>
@@ -148,7 +148,7 @@
     <x:t>343</x:t>
   </x:si>
   <x:si>
-    <x:t>297</x:t>
+    <x:t>296</x:t>
   </x:si>
   <x:si>
     <x:t>349</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -70,7 +70,7 @@
     <x:t>774</x:t>
   </x:si>
   <x:si>
-    <x:t>3240</x:t>
+    <x:t>3241</x:t>
   </x:si>
   <x:si>
     <x:t>5841</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -76,7 +76,7 @@
     <x:t>5841</x:t>
   </x:si>
   <x:si>
-    <x:t>6334</x:t>
+    <x:t>6335</x:t>
   </x:si>
   <x:si>
     <x:t>3454</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2021.xlsx
@@ -73,7 +73,7 @@
     <x:t>3241</x:t>
   </x:si>
   <x:si>
-    <x:t>5841</x:t>
+    <x:t>5842</x:t>
   </x:si>
   <x:si>
     <x:t>6335</x:t>
